--- a/Calculations/mppt/PV_branch_fuldsystemtest.xlsx
+++ b/Calculations/mppt/PV_branch_fuldsystemtest.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simo2\OneDrive - Danmarks Tekniske Universitet\Dokumenter\GitHub\ee-projekt\Calculations\mppt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544856F9-6402-48F2-AD87-CDC061816D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75B732FF-4D32-4E0D-B5E1-FCB73BF124A1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -68,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +110,848 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loads effekt på strøm og spændingsforhold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11821832705694398"/>
+          <c:y val="3.4519956850053934E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13089129483814524"/>
+          <c:y val="0.23795360531389886"/>
+          <c:w val="0.46652427821522308"/>
+          <c:h val="0.54789525095770797"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spænding (PV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spænding (Load)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="162490240"/>
+        <c:axId val="162488704"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strøm (PV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7060000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7720000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7060000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9568000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0624000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9436E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5772000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="146918784"/>
+        <c:axId val="145642624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="162490240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Belastningsmodstand</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> - Ohm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162488704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="162488704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Indgangs/udgangsspænding</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> - V</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162490240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145642624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Indgangsstrøm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> - A</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146918784"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146918784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="145642624"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effektivitet (System, begge bucks)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.9807742115434414E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5059578869102677E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1627599698665686E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0431542512760778E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.011587960826537E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8604159517865095E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12388405245548101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16434026586310849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24034763882479615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47622313149092127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51653831722560239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59836326107019899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63239241436698412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70556239737274229</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90834243492453137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90790900951681119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="147470976"/>
+        <c:axId val="147469440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="147470976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147469440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147469440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147470976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -212,7 +1049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,31 +1243,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EC1AD-0104-4D2B-9BD2-4F35C330A5B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>19.5</v>
       </c>
@@ -467,12 +1305,12 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="C2">
-        <f>B2*(5/0.66)</f>
-        <v>1.4772727272727273</v>
+        <f>B2*(0.66/5)</f>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D2">
-        <f>A2*B2</f>
-        <v>3.8025000000000002</v>
+        <f>A2*C2</f>
+        <v>0.5019300000000001</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -488,12 +1326,12 @@
         <f>H2*G2</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K2">
-        <f>(I2/D2)*100</f>
-        <v>0.65746219592373445</v>
+      <c r="K2" s="1">
+        <f>(I2/D2)</f>
+        <v>4.9807742115434414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>19.600000000000001</v>
       </c>
@@ -501,12 +1339,12 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C20" si="0">B3*(5/0.66)</f>
-        <v>1.4772727272727273</v>
+        <f t="shared" ref="C3:C17" si="0">B3*(0.66/5)</f>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="1">A3*B3</f>
-        <v>3.8220000000000005</v>
+        <f t="shared" ref="D3:D17" si="1">A3*C3</f>
+        <v>0.50450400000000006</v>
       </c>
       <c r="F3">
         <v>900</v>
@@ -522,12 +1360,12 @@
         <f t="shared" ref="I3:I15" si="3">H3*G3</f>
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="4">(I3/D3)*100</f>
-        <v>0.72678644107215529</v>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K17" si="4">(I3/D3)</f>
+        <v>5.5059578869102677E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>19.7</v>
       </c>
@@ -536,11 +1374,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1.4772727272727273</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.8414999999999999</v>
+        <v>0.50707800000000003</v>
       </c>
       <c r="F4">
         <v>800</v>
@@ -556,12 +1394,12 @@
         <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>0.81348431602238713</v>
+        <v>6.1627599698665686E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>19.7</v>
       </c>
@@ -570,11 +1408,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1.4772727272727273</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>3.8414999999999999</v>
+        <v>0.50707800000000003</v>
       </c>
       <c r="F5">
         <v>700</v>
@@ -590,12 +1428,12 @@
         <f t="shared" si="3"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>0.92969636116844234</v>
+        <v>7.0431542512760778E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>19.7</v>
       </c>
@@ -604,11 +1442,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.5151515151515151</v>
+        <v>2.6400000000000003E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>3.94</v>
+        <v>0.5200800000000001</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -624,12 +1462,12 @@
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>1.0575296108291032</v>
+        <v>8.011587960826537E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>19.7</v>
       </c>
@@ -638,11 +1476,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.4772727272727273</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>3.8414999999999999</v>
+        <v>0.50707800000000003</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -658,12 +1496,12 @@
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>1.3015749056358195</v>
+        <v>9.8604159517865095E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>19.600000000000001</v>
       </c>
@@ -672,11 +1510,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.4772727272727273</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>3.8220000000000005</v>
+        <v>0.50450400000000006</v>
       </c>
       <c r="F8">
         <v>400</v>
@@ -692,12 +1530,12 @@
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>1.6352694924123494</v>
+        <v>0.12388405245548101</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>19.7</v>
       </c>
@@ -706,11 +1544,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.4772727272727273</v>
+        <v>2.5740000000000002E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>3.8414999999999999</v>
+        <v>0.50707800000000003</v>
       </c>
       <c r="F9">
         <v>300</v>
@@ -726,12 +1564,12 @@
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>2.1692915093930321</v>
+        <v>0.16434026586310849</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>19.7</v>
       </c>
@@ -740,11 +1578,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.5151515151515151</v>
+        <v>2.6400000000000003E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>3.94</v>
+        <v>0.5200800000000001</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -760,12 +1598,12 @@
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>3.1725888324873095</v>
+        <v>0.24034763882479615</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>19.399999999999999</v>
       </c>
@@ -774,11 +1612,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.5530303030303028</v>
+        <v>2.7060000000000001E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>3.9769999999999994</v>
+        <v>0.52496399999999999</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -794,12 +1632,12 @@
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>6.2861453356801613</v>
+        <v>0.47622313149092127</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>19.399999999999999</v>
       </c>
@@ -808,11 +1646,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.5909090909090908</v>
+        <v>2.7720000000000002E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.0739999999999998</v>
+        <v>0.53776800000000002</v>
       </c>
       <c r="F12">
         <v>90</v>
@@ -828,12 +1666,12 @@
         <f t="shared" si="3"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>6.8183057873779527</v>
+        <v>0.51653831722560239</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>19.3</v>
       </c>
@@ -842,11 +1680,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1.5530303030303028</v>
+        <v>2.7060000000000001E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3.9565000000000001</v>
+        <v>0.522258</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -862,12 +1700,12 @@
         <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>7.8983950461266268</v>
+        <v>0.59836326107019899</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>19.100000000000001</v>
       </c>
@@ -876,11 +1714,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1.6969696969696968</v>
+        <v>2.9568000000000001E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>4.2784000000000004</v>
+        <v>0.56474880000000005</v>
       </c>
       <c r="F14">
         <v>70</v>
@@ -896,12 +1734,12 @@
         <f t="shared" si="3"/>
         <v>0.3571428571428571</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>8.347579869644191</v>
+        <v>0.63239241436698412</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>18.899999999999999</v>
       </c>
@@ -910,11 +1748,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1.7575757575757576</v>
+        <v>3.0624000000000002E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4.3848000000000003</v>
+        <v>0.57879360000000002</v>
       </c>
       <c r="F15">
         <v>60</v>
@@ -930,12 +1768,12 @@
         <f t="shared" si="3"/>
         <v>0.40837500000000004</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>9.3134236453201975</v>
+        <v>0.70556239737274229</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>18.7</v>
       </c>
@@ -944,11 +1782,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1.6893939393939392</v>
+        <v>2.9436E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D19" si="5">A16*B16</f>
-        <v>4.1700999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.55045319999999998</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -957,19 +1795,19 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H20" si="6">G16/F16</f>
+        <f t="shared" ref="H16:H20" si="5">G16/F16</f>
         <v>0.1</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I20" si="7">H16*G16</f>
+        <f t="shared" ref="I16:I20" si="6">H16*G16</f>
         <v>0.5</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>11.990120141003814</v>
+        <v>0.90834243492453137</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>14.7</v>
       </c>
@@ -978,11 +1816,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2.0530303030303032</v>
+        <v>3.5772000000000005E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>3.9837000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.5258484000000001</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -991,94 +1829,95 @@
         <v>4.37</v>
       </c>
       <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.10925</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="6"/>
-        <v>0.10925</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="7"/>
         <v>0.47742250000000003</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>11.984398925621909</v>
+        <v>0.90790900951681119</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C20" si="7">B18*(5/0.66)</f>
         <v>0</v>
       </c>
       <c r="D18">
+        <f t="shared" ref="D16:D19" si="8">A18*B18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="K18" t="e">
+        <f t="shared" ref="K3:K20" si="9">(I18/D18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="K19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="C20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="8">A20*B20</f>
+        <f t="shared" ref="D20" si="10">A20*B20</f>
         <v>0</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="K20" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Calculations/mppt/PV_branch_fuldsystemtest.xlsx
+++ b/Calculations/mppt/PV_branch_fuldsystemtest.xlsx
@@ -136,8 +136,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11821832705694398"/>
-          <c:y val="3.4519956850053934E-2"/>
+          <c:x val="0.11821832705694399"/>
+          <c:y val="3.4519956850053941E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -149,8 +149,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.13089129483814524"/>
           <c:y val="0.23795360531389886"/>
-          <c:w val="0.46652427821522308"/>
-          <c:h val="0.54789525095770797"/>
+          <c:w val="0.46652427821522313"/>
+          <c:h val="0.54789525095770808"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -423,9 +423,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="162490240"/>
-        <c:axId val="162488704"/>
+        <c:axId val="126728832"/>
+        <c:axId val="127271680"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -563,11 +562,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146918784"/>
-        <c:axId val="145642624"/>
+        <c:axId val="127288064"/>
+        <c:axId val="127273600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162490240"/>
+        <c:axId val="126728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,12 +597,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162488704"/>
+        <c:crossAx val="127271680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162488704"/>
+        <c:axId val="127271680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,12 +634,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162490240"/>
+        <c:crossAx val="126728832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145642624"/>
+        <c:axId val="127273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,12 +669,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146918784"/>
+        <c:crossAx val="127288064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146918784"/>
+        <c:axId val="127288064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +682,8 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="145642624"/>
+        <c:crossAx val="127273600"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -695,7 +695,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -709,7 +709,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16321067009480958"/>
+          <c:y val="0.17532316272965878"/>
+          <c:w val="0.5901635509846983"/>
+          <c:h val="0.63194061679790026"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -846,44 +856,92 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="147470976"/>
-        <c:axId val="147469440"/>
+        <c:dLbls/>
+        <c:axId val="127316352"/>
+        <c:axId val="127317888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147470976"/>
+        <c:axId val="127316352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Belastningsmodstand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147469440"/>
+        <c:crossAx val="127317888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147469440"/>
+        <c:axId val="127317888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Effektivitet</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147470976"/>
+        <c:crossAx val="127316352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75714392843751677"/>
+          <c:y val="0.4975190288713911"/>
+          <c:w val="0.22100725644588545"/>
+          <c:h val="0.12569094488188975"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -924,15 +982,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1243,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1254,7 +1312,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1843,11 +1901,11 @@
     </row>
     <row r="18" spans="1:11">
       <c r="C18">
-        <f t="shared" ref="C3:C20" si="7">B18*(5/0.66)</f>
+        <f t="shared" ref="C18:C20" si="7">B18*(5/0.66)</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D16:D19" si="8">A18*B18</f>
+        <f t="shared" ref="D18:D19" si="8">A18*B18</f>
         <v>0</v>
       </c>
       <c r="F18">
@@ -1862,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="e">
-        <f t="shared" ref="K3:K20" si="9">(I18/D18)*100</f>
+        <f t="shared" ref="K18:K20" si="9">(I18/D18)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
